--- a/微指令设计.xlsx
+++ b/微指令设计.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2020\2020FallSeason\design\cpu-course-design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1836CE-2B29-4D19-AFCF-787B6880D158}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9802E3C-773C-4EC5-B6EA-C8C0F3CA830E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34548" yWindow="2712" windowWidth="34560" windowHeight="18684" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11532" yWindow="948" windowWidth="34560" windowHeight="18684" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="指令设计" sheetId="2" r:id="rId1"/>
+    <sheet name="微指令设计" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="136">
   <si>
     <t>微指令</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -492,6 +494,75 @@
   </si>
   <si>
     <t>RA直出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据传送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算术运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制转移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理机控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30H</t>
+  </si>
+  <si>
+    <t>40H</t>
+  </si>
+  <si>
+    <t>50H</t>
+  </si>
+  <si>
+    <t>60H</t>
+  </si>
+  <si>
+    <t>70H</t>
+  </si>
+  <si>
+    <t>80H</t>
+  </si>
+  <si>
+    <t>90H</t>
+  </si>
+  <si>
+    <t>操作数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00F~FFH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄存器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -523,7 +594,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -583,11 +654,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -603,6 +711,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -670,13 +787,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>172622</xdr:colOff>
+      <xdr:colOff>190208</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>10777</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>518528</xdr:colOff>
+      <xdr:colOff>536114</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
@@ -701,7 +818,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5254576" y="1945085"/>
+          <a:off x="5272162" y="1945085"/>
           <a:ext cx="8880306" cy="6411124"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -976,11 +1093,240 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A573284B-AADB-4627-8324-CC9121BCB177}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A14:A15"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1710,6 +2056,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A21:C21"/>
     <mergeCell ref="A56:C56"/>
     <mergeCell ref="A60:C60"/>
     <mergeCell ref="A65:C65"/>
@@ -1720,15 +2072,24 @@
     <mergeCell ref="A44:C44"/>
     <mergeCell ref="A48:C48"/>
     <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A27:C27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{263D667F-1CC4-4B49-9FA1-D703A303AB8E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V26" sqref="V26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>